--- a/job_application_bot/documents/Job update.xlsx
+++ b/job_application_bot/documents/Job update.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,3194 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Software Engineer, Backend</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tinder</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Palo Alto, CA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-backend-at-tinder-4259594855?position=1&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=xr5rDwEniYSakFJUQ5sN1w%3D%3D</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2808c96a6e34</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:51.821675</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Full-Stack Software Engineer (New graduates: United States)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wanderlog</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-software-engineer-new-graduates-united-states-at-wanderlog-4296181217?position=2&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=kbsjqY%2B3rh21xTAx2Tfa8w%3D%3D</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>73b45ad3ff5d</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:51.891845</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Frontend Engineer I</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Twitch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/frontend-engineer-i-at-twitch-4293970085?position=3&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=r29uHEQN9N8rxD8qCCWrvQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>70691b7679a9</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:51.964260</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Full-Stack Software Engineer (New graduates: Canada)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wanderlog</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/jobs/view/full-stack-software-engineer-new-graduates-canada-at-wanderlog-4296186192?position=4&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=40Moup2oWfz8IttBkRADew%3D%3D</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>7a81c9b840cd</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.037993</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Software Engineer, Routing</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lyft</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-routing-at-lyft-4293968943?position=5&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=JA4CzJHDi5cr4ONDjdh4zg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0070d4d53c8e</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.107459</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-core-product-at-notion-4286240588?position=6&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=WgWU8vOvvVuMLk0%2F9tSyyQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>f5bd408822db</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.182906</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-core-product-at-notion-4286238812?position=7&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=JCosORFaLZ9uNsX2kSYVGg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>eced646684db</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.252318</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-frontend-at-wealthfront-4296092611?position=8&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=wCrmIrn7STgC8ePuRwiN9g%3D%3D</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>711e2fb7b4a8</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.323820</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/staff-software-engineer-backend-at-tinder-4295783875?position=9&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=NkcE2p3qxYqBWuSh%2FwlUGw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>e239cf8375f1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.393801</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/jobs/view/graduate-software-engineer-at-alphasights-4108711787?position=10&amp;pageNum=0&amp;refId=pqzbkqKrcPNicXZyLe%2F%2Brg%3D%3D&amp;trackingId=OFN7rilxiD1xKIRsq9QCyQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>e473598fd6c5</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:52.465290</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>software engineer Specialist</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>StartupTech</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Great opportunity for a software engineer to join StartupTech. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>c6a3b1eb137c</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:54.597931</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Remote software engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BigCorp Inc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Great opportunity for a software engineer to join BigCorp Inc. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7e3965df0f70</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:54.597985</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>software engineer Consultant</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FinanceFlow</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Great opportunity for a software engineer to join FinanceFlow. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>e43311b74db7</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:54.597998</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Full Stack software engineer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HealthTech</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Great opportunity for a software engineer to join HealthTech. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-4</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>b8878a655038</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:14:54.598008</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Software Engineer, Core Product</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Notion</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-core-product-at-notion-4286238812?position=1&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=aRFTkcNQ2Z2h49VPJXC%2FOg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>6ac0899c4320</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.050364</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Junior Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Baselayer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/junior-backend-engineer-at-baselayer-4296618642?position=2&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=uGd9CuXYb1yMRKBAkjMoEQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>906f4645a883</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.142492</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Software Engineer, Agent (New Grad)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sierra Business Solution</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-agent-new-grad-at-sierra-business-solution-4296607920?position=3&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=NJe7mjSpzebUxRxx%2FXQD6g%3D%3D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>fb418e580ffc</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.231396</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chime</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/backend-engineer-at-chime-4124668032?position=4&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=vK9VCzIzeKW%2BISwoFRKmYQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>a6be5c2461dd</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.322969</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Software Engineer, 2026 New Grad</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Whatnot</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-2026-new-grad-at-whatnot-4286425184?position=5&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=ntKb53Cd%2BCWagjJqGfuO%2Bg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>47669f153220</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.407152</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-engineer-at-baselayer-4296633028?position=6&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=zjb1M2PSVXYM5IcyXt7eWw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3f838cffad42</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.491749</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-at-zuora-4286233881?position=7&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=Y6Wkezfw1qCgjv6vsp6j1g%3D%3D</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>f52af9e06e54</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.574735</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/fullstack-engineer-i-typescript-focused-%E2%80%93-handshake-ai-at-handshake-4296336676?position=8&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=h6yA%2FjxJe8HlI8F3apIqhg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>4ed0870005af</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.662007</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-at-rokt-4282832359?position=9&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=W%2BIn35FbBob%2BhhG3M3ZzUA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>fb1a8a30dfaf</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:03.759300</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/founding-engineer-at-mlabs-4296198585?position=10&amp;pageNum=0&amp;refId=sGKPy7EgShTQuxfrRTZADg%3D%3D&amp;trackingId=vfsEVih6pDS30fJIsynSAA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>dd661b0afe02</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:04.060249</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Software Engineer, Core Product</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Notion</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-core-product-at-notion-4286240588?position=3&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=efGeJyVp%2FlX5NjyD8ex0aw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>950a5546145c</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:14.558423</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Software Engineer, Frontend</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wealthfront</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-frontend-at-wealthfront-4296092611?position=4&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=L5%2FyI7l3Bj3ACsJQdB%2FWYw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>9438e27a4702</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:14.628130</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-full-stack-at-verse-medical-4293968642?position=6&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=7KKvGbFL89xlIdJv2APSXg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>732e17a29eb4</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:14.783389</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-2026-new-grad-at-whatnot-4286425183?position=7&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=0gqbE9Zum302jO4gpoBA5g%3D%3D</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>756859e25f59</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:14.852027</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-at-nourish-4246782478?position=8&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=lfjG4%2BETQfPdHCE2IdRrng%3D%3D</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1b1751a7ca51</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:14.919728</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-at-experian-4296122276?position=9&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=J6hUi8iH7Qutc75pEQQRsQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2e615db6f8e5</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:14.988928</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/fullstack-engineer-i-typescript-focused-%E2%80%93-handshake-ai-at-handshake-4296352358?position=10&amp;pageNum=0&amp;refId=eUY8%2B3oYTwkPBcgXWjNTJw%3D%3D&amp;trackingId=WA4CP3FJwgrNof9p%2B2SPrQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>b9687a10ca10</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:15.055870</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Bengaluru East, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/python-developer-at-infosys-4295730306?position=1&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=0z7CRMZSs%2Fn%2BmDl%2FGjTNvw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>5b18c86a3e8c</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.335489</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Petaling Jaya, Selangor, Malaysia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://my.linkedin.com/jobs/view/python-developer-at-lenovo-4271548721?position=2&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=ySO17uokZbc9Mwpxt3pPSQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>4e4f22f0b4db</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.421875</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Junior Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Unum Ireland</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Carlow, County Carlow, Ireland</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/jobs/view/junior-full-stack-developer-at-unum-ireland-4282328082?position=3&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=%2FWffb%2F31wSRyo%2Fr1xoEorg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>77e92b367f36</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.490342</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Backend Engineer - Python</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LUSH</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/jobs/view/backend-engineer-python-at-lush-4296086453?position=4&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=eZOu23JT2LyMDuB5Z0Lxxw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>cdb6cc51e887</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.558440</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NAGRA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/python-developer-at-nagra-4271462602?position=5&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=9krOLjukVuQllblfCoWuCQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>8a37d8be393b</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.627119</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/jobs/view/python-web-developer-at-ndz-technologies-4296194534?position=6&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=%2FwNRa9bFD6rorIG9K1jtrw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>6e50c60d1519</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.696967</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/python-developer-at-msci-inc-4269630250?position=7&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=NfB4nP7BGH27HkBO9a2EpA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>59ab013b9a82</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.766854</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://sg.linkedin.com/jobs/view/junior-backend-engineer-at-foodpanda-4296044261?position=8&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=2apa41oqWNqRdMpEkJdu4Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>40e24024e86e</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.837185</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://pl.linkedin.com/jobs/view/python-developer-at-hyland-4280307189?position=9&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=KHYPjmvxJo4DZbGS89Ls2Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>ff2ff920d3f0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.905575</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://jo.linkedin.com/jobs/view/python-software-engineer-jo-at-commsquare-4296050410?position=10&amp;pageNum=0&amp;refId=y%2FkHtgKrO18cnbeTn4AHIg%3D%3D&amp;trackingId=rmqjv3%2FNN6FK1y1wM9SHHg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>c890ba8e43c1</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:25.972566</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>python developer Specialist</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>StartupTech</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Great opportunity for a python developer to join StartupTech. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>79d11c6ad891</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:28.177292</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Remote python developer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BigCorp Inc</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Great opportunity for a python developer to join BigCorp Inc. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-2</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>68480d65f78d</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:28.177311</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>python developer Consultant</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FinanceFlow</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Great opportunity for a python developer to join FinanceFlow. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-3</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>84e7996bde5a</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:28.177321</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Full Stack python developer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HealthTech</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Great opportunity for a python developer to join HealthTech. Competitive benefits!</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>$70,000 - $110,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://indeed.com/jobs/demo-4</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2b5e06d2ae69</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:28.177329</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Baselayer</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-engineer-at-baselayer-4296633028?position=3&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=zAwsEOSD2npK66stcvBRiA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>14f939ebba2f</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.359052</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Baselayer</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-backend-engineer-at-baselayer-4296621593?position=4&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=g6o12CB922V%2B4q3DcmtrlA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>dd1a6529e076</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.426088</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Fullstack Engineer I (TypeScript focused) – Handshake AI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/fullstack-engineer-i-typescript-focused-%E2%80%93-handshake-ai-at-handshake-4296336676?position=5&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=47xgyBUPC1gjcF5B2KJb3A%3D%3D</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0662e89db1bf</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.498960</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-engineer-python-django-react-llm-voice-ai-at-the-lanes-group-4296193474?position=6&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=qh8SVxTHSgpAG%2BOhfPwV1Q%3D%3D</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ae6e1e5ed7da</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.568059</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/back-end-developer-at-klear-inc-4296172026?position=7&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=vw1%2BHSAM1ArfmQoYvAOGyA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ee098ad3777d</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.636202</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/frontend-web-developer-at-air-apps-4294497702?position=8&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=H4C9uSwoSyTbDB7dXqg0UQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>96a9bc039710</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.703361</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/backend-engineer-at-air-apps-4294704559?position=9&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=f2IeyLzy21gOmHObxTWVDQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>a3f6bfa0c737</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.771498</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-frontend-engineer-new-business-at-skylight-4293967980?position=10&amp;pageNum=0&amp;refId=NpbISfxHKfJeetodwEU1uA%3D%3D&amp;trackingId=gZd45m9O5AFF%2FB5cLqPOgQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>499a319aae89</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:36.838514</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Avesta Computer Services</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/python-developer-at-avesta-computer-services-4294465327?position=1&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=Gfi7bvUgnpx4Em7R16Edrw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>8885e1f18c14</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.196112</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jr. Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Widewail</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/jr-backend-engineer-at-widewail-4296166853?position=2&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=rnCtZuMPZfEWrHQ5A60OvA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>f65b1768b035</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.269680</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Software Engineer - Python, PyTorch, AWS, LLM</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>The Lanes Group</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>New York, United States</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/software-engineer-python-pytorch-aws-llm-at-the-lanes-group-4296405024?position=3&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=OienJoCugsp0pWvXjrryxg%3D%3D</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>e55108c192e1</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.342955</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Wealthfront</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/backend-engineer-at-wealthfront-4296094481?position=4&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=g4zI%2B6ZuANflR%2B130a8R2A%3D%3D</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2d256bf586e8</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.420662</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/entry-level-java-and-python-software-engineer-at-caci-international-inc-4296489664?position=5&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=jioqxsq7jad36%2FIzPHWBtw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>cb994cae3337</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.489880</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/backend-engineer-at-coders-connect-4296463079?position=7&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=adxpZiUMVXcFS31HFc6q5w%3D%3D</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>6e12a0c569cc</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.626393</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/senior-python-developer-at-quantinno-capital-management-4199462442?position=8&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=Yu98syslk7SfYIj5S4DSEQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>3c5c583a8e21</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.691898</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/lead-python-developer-at-visionary-innovative-technology-solutions-llc-4294485428?position=9&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=XzQQ%2FM5B5obaDLo%2BqxcBlw%3D%3D</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>e8ad694323cf</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.759252</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/backend-engineer-at-gong-4296475414?position=10&amp;pageNum=0&amp;refId=xzoIdKtdCg66gzszNqTYLA%3D%3D&amp;trackingId=BlCHxat3ONYmPb2%2FbnvIxA%3D%3D</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>not_applied</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>526726bbe06e</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2025-09-05T17:15:47.832151</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
